--- a/Output_testing/R1_201907/Country/HKD/MN/SPAIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SPAIN_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>6003.312325</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>43.84657361978913</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>5574.592365</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>40.45062369548519</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>7651.902507</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>45.0597782594452</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>4569.968554</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>50.18496206293136</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>23.48007682887057</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>383.196161</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.798761379470136</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>694.458515</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.039163085495034</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>753.633716</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.437924829901613</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>432.842159</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.753242187988216</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-3.368013574489404</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>637.856613</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.658732617376167</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>944.197963</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.851334410593562</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1126.705363</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.634832811064162</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>375.587161</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.124498276823174</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-34.72573572901826</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>876.867039</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.404400287516278</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>749.3811940000001</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.43769565525306</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>757.930739</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.46322872045414</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>373.776617</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.104615846368869</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-12.94552069592248</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>403.98122</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.95056984291455</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>518.585272</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.762983249393668</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1206.007232</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>7.101817933970612</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>345.491342</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.7940020125883</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-26.92981538635454</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>210.249085</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.535602594846805</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>254.297921</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.845248734866952</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>479.576477</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.824083251491683</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>249.418927</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.738985890464411</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-11.86467592817828</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>347.591975</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.538718010391939</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>352.271442</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.556168883033286</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>275.367795</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.621559052946826</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>225.189655</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.472912922616929</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>47.29463929041695</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>359.535946</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.625953552274916</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>377.757173</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.741099663041155</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>359.189521</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.115160269563055</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>192.865815</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.117949717737016</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0.07890666815986158</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>786.1645600000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>5.741933851044329</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>632.005896</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>4.585991405027863</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>584.853333</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.444027348122806</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>188.410953</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.069028794578822</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-40.51480571293282</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>284.679684</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.079223609703549</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>313.645298</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.275888009841292</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>280.793725</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.653510741095964</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>180.541811</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.982614065883991</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>19.92691280593819</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>3398.199263</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>24.8195306346722</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>3370.034185</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>24.45380320796893</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>3505.708838</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>20.64407678194394</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1972.157895</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>21.65718822201891</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0.424938291804744</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,473 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL OR VEGETABLE FATS AND OILS, PROCESSED; WAXES, AND INEDIBLE MIXTURES OR PREPARATIONS OF ANIMAL OR VEGETABLE FATS OR OILS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>13.019942</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>24.82663987360705</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>35.809051</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>48.85758497474701</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>26.069609</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>46.47632421849477</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>18.693366</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>50.04079102573877</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>28.90187927026953</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>25.236935</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>48.12220336762095</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>17.93782</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>24.47421923892137</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>15.050142</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>26.83106137596407</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>7.664735</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>20.51794216208391</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-22.42343008793631</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>2.342144</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>4.466038759629614</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.831946</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2.4994925825917</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>4.758442</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>8.483245497349143</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>3.186078</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.528900754936469</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>12.75015163922533</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.908583</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.639317503095526</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>5.241951</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>7.152076340028114</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>4.103117</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>7.314946534043437</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>3.148564</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.42847848563839</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>10.42726433543672</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.927428</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.675251459515464</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.563488</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.133210618091981</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1.756511</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.13146908836847</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.998797</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.350635245673442</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>23.89708617021804</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.059402</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.020085184356355</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.221566</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.66669495506211</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.1839826849473907</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>0.5115</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.36924856709409</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.9968504338336261</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>0.884552</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.686678324179852</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.878908</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.199175099473732</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>0.972041</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.732933266075064</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.986927062497912</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-48.5334621349709</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.8352671274375143</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.7339332935292017</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-41.48168701442842</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.4478997484375165</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.6287418793430987</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0.582341</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.038184697044074</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.6928370980218146</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-26.82328260138144</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>5.829552</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>11.11588577955768</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>8.347163999999999</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>11.38880431174088</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.225212</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>3.967058898615825</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>0.879163</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>2.353455870952378</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-94.03832557781242</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1766,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>6003.312325</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>44.01516608958026</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>5574.592365</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>40.66690252821567</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>7651.902507</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>45.20910868815284</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>4569.968554</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>50.39168210611628</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>23.48007682887057</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>379.56925</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.782930934923065</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>687.732564</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.017040047854305</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>753.599159</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.4524281713423</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>432.82663</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>4.772650334088406</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-3.368445319017344</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>636.7972109999999</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.66887836083832</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>942.976397</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.879055312451891</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1126.602163</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.656211261027122</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>375.075661</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.135847599719268</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-34.81463063715546</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>876.783324</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.428411773567729</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>749.3811940000001</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.466769581972094</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>757.930739</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.478020090584905</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>373.74527</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.121177774411573</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-12.95282157200363</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>401.639076</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.944742782178261</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>516.753326</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.769738801264486</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1201.24879</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>7.09723981179078</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>342.305264</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.774498192474478</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-27.16838598937979</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>210.166935</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.540904762199427</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>254.297921</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.855114793928953</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>479.576477</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.833442409014011</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>249.418927</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.750268220036558</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-11.86467592817828</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>347.591975</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.548479519767486</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>352.271442</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.569836044915542</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>275.367795</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.626932983265725</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>225.189655</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.483099254241826</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>47.29463929041695</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>786.1645600000001</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>5.764011900237388</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>632.005896</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.610511493406677</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>584.850233</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.455422716873425</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>188.038567</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.073445272103648</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-40.63179453870166</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>334.299011</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.451017987432032</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>359.819353</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.624898395816001</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>344.139379</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.033250498794472</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>185.20108</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.042157148083827</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>1.294920015000312</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>284.679684</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.087218338017958</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>313.645298</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.288056583703077</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>280.793725</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.658990560957012</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>180.541811</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.990780776557292</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>19.92691280593819</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>3378.187088</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>24.76823755125808</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>3324.458752</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>24.25207641647131</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>3469.566044</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>20.49895280819741</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1946.583214</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>21.46439332216685</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>0.9337595563649881</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2224,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>326.821179</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>4.460998881948068</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>673.276379</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>8.524721115017902</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>994.940008</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>12.49197009648583</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>614.2635330000001</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>12.68112651619439</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>12.94658121899173</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1018.74937</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.90558535545611</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1123.956061</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>14.23102349111085</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>732.856027</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>9.201374455446977</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>321.570353</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>6.638639787607723</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-30.92920009354887</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>474.042116</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.470515025809563</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>549.0500070000001</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.951822956904341</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>498.773921</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.262356379218982</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>278.976581</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.759315226541948</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-6.639954684383465</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>400.188717</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.462441034475407</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>276.50679</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.501003963127037</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>306.150276</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.843870044497078</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>270.37518</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.581744121572054</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>79.47305193756489</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>130.249508</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.777861861156452</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>178.040538</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.254268798011325</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>165.952715</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.083619450963555</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>263.276314</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.43519200992731</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>100.0793929915998</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>274.529149</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.747230306488659</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>462.175498</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.851857200896267</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>485.198027</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>6.091904230830693</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>257.635112</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.318732554950339</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-8.432736884364056</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>255.73391</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.490681632313088</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>225.698479</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.857692100258169</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>347.065616</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.357582629836746</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>235.934726</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.870740242966138</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>13.91833183447437</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>227.676377</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.107705768489951</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>217.731889</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.75682273946378</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>295.075434</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.70481985657127</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>224.620099</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.637156107229157</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>51.58933642171781</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>371.963279</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>5.077173324023587</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>359.84409</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>4.55618317798938</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>380.054651</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>4.771776486168157</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>202.535353</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>4.181228898371037</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-16.90686660830458</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>202.666806</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.766333558125944</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>266.291979</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>3.371668644476839</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>182.55099</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.292019106506654</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>130.602031</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.696205764151951</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>15.24795609251757</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>3643.567908</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>49.73347325171317</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>3565.356796</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>45.14293581274411</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>3576.01882</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>44.89870726347406</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2044.130004</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>42.19991877048795</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-2.01315323987552</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
